--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/player/KC Gossenschlürfer.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/player/KC Gossenschlürfer.xlsx
@@ -164,11 +164,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
